--- a/Data_file/import_invoice_AR_ภาษีซื้อ116400.xlsx
+++ b/Data_file/import_invoice_AR_ภาษีซื้อ116400.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="329">
   <si>
     <t>invoice_date</t>
   </si>
@@ -986,20 +986,39 @@
   <si>
     <t>คาดว่าจะใช้ 9/68</t>
   </si>
+  <si>
+    <t>BOEP6802013</t>
+  </si>
+  <si>
+    <t>CS6804001</t>
+  </si>
+  <si>
+    <t>OEP6802080</t>
+  </si>
+  <si>
+    <t>.YSBKPLQ6E2</t>
+  </si>
+  <si>
+    <t>CADV6804026</t>
+  </si>
+  <si>
+    <t>สมาคมอสังหาริมทรัพย์ไทย สนญ</t>
+  </si>
+  <si>
+    <t>340/16984</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;"/>
     <numFmt numFmtId="165" formatCode="#,###.00&quot; &quot;;\(#,###.00\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="167" formatCode="#,###.00"/>
     <numFmt numFmtId="168" formatCode="#,###.00_);\(#,###.00\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1053,11 +1072,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1067,12 +1081,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1088,14 +1096,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Angsana New"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1340,28 +1348,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="8" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="8" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="8"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1458,33 +1467,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="17" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="17" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="17" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="17" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="17" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Comma 2" xfId="8"/>
     <cellStyle name="Comma 3" xfId="3"/>
     <cellStyle name="Normal 10" xfId="6"/>
@@ -1494,6 +1508,7 @@
     <cellStyle name="Normal 2 2 3" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 6" xfId="5"/>
+    <cellStyle name="จุลภาค" xfId="11" builtinId="3"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="ปกติ 2 2 2" xfId="4"/>
   </cellStyles>
@@ -2625,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2625"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K159" sqref="K159"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J162" sqref="J162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -2684,7 +2699,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="49.8" customHeight="1">
-      <c r="A2" s="40">
+      <c r="A2" s="32">
         <v>45694</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2698,13 +2713,13 @@
       <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>1021.3</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10" t="s">
@@ -2715,27 +2730,27 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A3" s="40">
+      <c r="A3" s="32">
         <v>45694</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>156</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="33">
         <v>2450</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="I3" s="39"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="14"/>
       <c r="K3" s="9"/>
       <c r="L3" s="10" t="s">
@@ -2746,27 +2761,27 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A4" s="40">
+      <c r="A4" s="32">
         <v>45695</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="14" t="s">
         <v>157</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <v>819</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="39"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="14"/>
       <c r="K4" s="9"/>
       <c r="L4" s="10" t="s">
@@ -2777,27 +2792,27 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="48" customHeight="1">
-      <c r="A5" s="40">
+      <c r="A5" s="32">
         <v>45708</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="14" t="s">
         <v>158</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <v>2353.0500000000002</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="39"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="14"/>
       <c r="K5" s="9"/>
       <c r="L5" s="10" t="s">
@@ -2808,14 +2823,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" customHeight="1">
-      <c r="A6" s="40">
+      <c r="A6" s="32">
         <v>45709</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="14" t="s">
         <v>159</v>
       </c>
       <c r="E6" s="14"/>
@@ -2825,10 +2840,10 @@
       <c r="G6" s="33">
         <v>2712.15</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="14"/>
       <c r="K6" s="9"/>
       <c r="L6" s="10" t="s">
@@ -2839,27 +2854,27 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="48" customHeight="1">
-      <c r="A7" s="40">
+      <c r="A7" s="32">
         <v>43272</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="14" t="s">
         <v>160</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <v>9.52</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="14"/>
       <c r="K7" s="9"/>
       <c r="L7" s="10" t="s">
@@ -2870,14 +2885,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A8" s="40">
+      <c r="A8" s="32">
         <v>45535</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="14" t="s">
         <v>161</v>
       </c>
       <c r="E8" s="14"/>
@@ -2887,10 +2902,10 @@
       <c r="G8" s="33">
         <v>17953.21</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="14"/>
       <c r="K8" s="9"/>
       <c r="L8" s="10" t="s">
@@ -2901,14 +2916,14 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A9" s="40">
+      <c r="A9" s="32">
         <v>45535</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="14" t="s">
         <v>161</v>
       </c>
       <c r="E9" s="14"/>
@@ -2918,7 +2933,7 @@
       <c r="G9" s="33">
         <v>52.5</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="34" t="s">
         <v>214</v>
       </c>
       <c r="I9" s="8"/>
@@ -2932,14 +2947,14 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A10" s="40">
+      <c r="A10" s="32">
         <v>45565</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="14" t="s">
         <v>161</v>
       </c>
       <c r="E10" s="14"/>
@@ -2949,7 +2964,7 @@
       <c r="G10" s="33">
         <v>11228.75</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="34" t="s">
         <v>215</v>
       </c>
       <c r="I10" s="8"/>
@@ -2963,24 +2978,24 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A11" s="40">
+      <c r="A11" s="32">
         <v>45596</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="14" t="s">
         <v>161</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="33">
         <v>11245.04</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="34" t="s">
         <v>213</v>
       </c>
       <c r="I11" s="8"/>
@@ -2994,24 +3009,24 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A12" s="40">
+      <c r="A12" s="32">
         <v>45596</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="14" t="s">
         <v>162</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="33">
         <v>770</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="34" t="s">
         <v>213</v>
       </c>
       <c r="I12" s="8"/>
@@ -3025,24 +3040,24 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A13" s="40">
+      <c r="A13" s="32">
         <v>45626</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="14" t="s">
         <v>161</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="33">
         <v>10660.45</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="34" t="s">
         <v>213</v>
       </c>
       <c r="I13" s="8"/>
@@ -3056,24 +3071,24 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A14" s="40">
+      <c r="A14" s="32">
         <v>45626</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="14" t="s">
         <v>162</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="33">
         <v>770</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="34" t="s">
         <v>213</v>
       </c>
       <c r="I14" s="8"/>
@@ -3087,24 +3102,24 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A15" s="40">
+      <c r="A15" s="32">
         <v>45626</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="14" t="s">
         <v>163</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="33">
         <v>416.22</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="34" t="s">
         <v>216</v>
       </c>
       <c r="I15" s="8"/>
@@ -3118,24 +3133,24 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A16" s="40">
+      <c r="A16" s="32">
         <v>45626</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="14" t="s">
         <v>164</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="33">
         <v>1610</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="34" t="s">
         <v>217</v>
       </c>
       <c r="I16" s="8"/>
@@ -3149,24 +3164,24 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A17" s="40">
+      <c r="A17" s="32">
         <v>45657</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="14" t="s">
         <v>161</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="33">
         <v>7724.34</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="34" t="s">
         <v>218</v>
       </c>
       <c r="I17" s="8"/>
@@ -3180,14 +3195,14 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A18" s="40">
+      <c r="A18" s="32">
         <v>45657</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="14" t="s">
         <v>161</v>
       </c>
       <c r="E18" s="14"/>
@@ -3197,7 +3212,7 @@
       <c r="G18" s="33">
         <v>84.7</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="34" t="s">
         <v>213</v>
       </c>
       <c r="I18" s="8"/>
@@ -3211,24 +3226,24 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A19" s="40">
+      <c r="A19" s="32">
         <v>45657</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="14" t="s">
         <v>162</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="33">
         <v>770</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="34" t="s">
         <v>213</v>
       </c>
       <c r="I19" s="8"/>
@@ -3242,24 +3257,24 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A20" s="40">
+      <c r="A20" s="32">
         <v>45657</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="14" t="s">
         <v>163</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="33">
         <v>326.35000000000002</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="34" t="s">
         <v>219</v>
       </c>
       <c r="I20" s="8"/>
@@ -3273,24 +3288,24 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A21" s="40">
+      <c r="A21" s="32">
         <v>45657</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="14" t="s">
         <v>165</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="33">
         <v>1610</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="34" t="s">
         <v>220</v>
       </c>
       <c r="I21" s="8"/>
@@ -3304,24 +3319,24 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A22" s="40">
+      <c r="A22" s="32">
         <v>45688</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="14" t="s">
         <v>162</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="33">
         <v>770</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="34" t="s">
         <v>213</v>
       </c>
       <c r="I22" s="8"/>
@@ -3335,24 +3350,24 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A23" s="40">
+      <c r="A23" s="32">
         <v>45688</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="14" t="s">
         <v>166</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="33">
         <v>3028.82</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="34" t="s">
         <v>221</v>
       </c>
       <c r="I23" s="8"/>
@@ -3366,24 +3381,24 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A24" s="40">
+      <c r="A24" s="32">
         <v>45688</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="14" t="s">
         <v>167</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="33">
         <v>49</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="34" t="s">
         <v>221</v>
       </c>
       <c r="I24" s="8"/>
@@ -3397,24 +3412,24 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A25" s="40">
+      <c r="A25" s="32">
         <v>45688</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="33">
         <v>2940</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="34" t="s">
         <v>222</v>
       </c>
       <c r="I25" s="8"/>
@@ -3428,7 +3443,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A26" s="40">
+      <c r="A26" s="32">
         <v>45688</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -3442,10 +3457,10 @@
       <c r="F26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="33">
         <v>204.06</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="34" t="s">
         <v>213</v>
       </c>
       <c r="I26" s="8"/>
@@ -3459,7 +3474,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A27" s="40">
+      <c r="A27" s="32">
         <v>45694</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -3473,10 +3488,10 @@
       <c r="F27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="33">
         <v>306.10000000000002</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="34" t="s">
         <v>223</v>
       </c>
       <c r="I27" s="17"/>
@@ -3490,7 +3505,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A28" s="40">
+      <c r="A28" s="32">
         <v>45695</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -3504,10 +3519,10 @@
       <c r="F28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="33">
         <v>500.36</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="34" t="s">
         <v>224</v>
       </c>
       <c r="I28" s="17"/>
@@ -3521,7 +3536,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A29" s="40">
+      <c r="A29" s="32">
         <v>45703</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -3535,10 +3550,10 @@
       <c r="F29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="33">
         <v>9742.48</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="34" t="s">
         <v>223</v>
       </c>
       <c r="I29" s="17"/>
@@ -3552,7 +3567,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A30" s="40">
+      <c r="A30" s="32">
         <v>45715</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -3566,10 +3581,10 @@
       <c r="F30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="33">
         <v>1806.28</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="34" t="s">
         <v>223</v>
       </c>
       <c r="I30" s="17"/>
@@ -3583,7 +3598,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A31" s="40">
+      <c r="A31" s="32">
         <v>45716</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -3597,10 +3612,10 @@
       <c r="F31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="33">
         <v>770</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="34" t="s">
         <v>213</v>
       </c>
       <c r="I31" s="17"/>
@@ -3614,7 +3629,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A32" s="40">
+      <c r="A32" s="32">
         <v>45716</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -3628,10 +3643,10 @@
       <c r="F32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="33">
         <v>2772</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="34" t="s">
         <v>225</v>
       </c>
       <c r="I32" s="17"/>
@@ -3645,7 +3660,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A33" s="40">
+      <c r="A33" s="32">
         <v>45716</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -3659,10 +3674,10 @@
       <c r="F33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="33">
         <v>2476.63</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="34" t="s">
         <v>226</v>
       </c>
       <c r="I33" s="17"/>
@@ -3676,7 +3691,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A34" s="40">
+      <c r="A34" s="32">
         <v>45716</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -3690,10 +3705,10 @@
       <c r="F34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="33">
         <v>5866.66</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="34" t="s">
         <v>223</v>
       </c>
       <c r="I34" s="17"/>
@@ -3707,7 +3722,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A35" s="40">
+      <c r="A35" s="32">
         <v>45716</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -3721,10 +3736,10 @@
       <c r="F35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="33">
         <v>8830.58</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="34" t="s">
         <v>223</v>
       </c>
       <c r="I35" s="17"/>
@@ -3738,7 +3753,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A36" s="40">
+      <c r="A36" s="32">
         <v>45716</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -3752,10 +3767,10 @@
       <c r="F36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="33">
         <v>2009.45</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="34" t="s">
         <v>227</v>
       </c>
       <c r="I36" s="17"/>
@@ -3769,7 +3784,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A37" s="40">
+      <c r="A37" s="32">
         <v>45716</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -3783,10 +3798,10 @@
       <c r="F37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="33">
         <v>3005.24</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="34" t="s">
         <v>228</v>
       </c>
       <c r="I37" s="17"/>
@@ -3800,7 +3815,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A38" s="40">
+      <c r="A38" s="32">
         <v>45716</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -3814,10 +3829,10 @@
       <c r="F38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="33">
         <v>1193.57</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="34" t="s">
         <v>223</v>
       </c>
       <c r="I38" s="17"/>
@@ -3831,7 +3846,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A39" s="40">
+      <c r="A39" s="32">
         <v>45715</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -3845,10 +3860,10 @@
       <c r="F39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="33">
         <v>158917</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="34" t="s">
         <v>229</v>
       </c>
       <c r="I39" s="17"/>
@@ -3862,7 +3877,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A40" s="40">
+      <c r="A40" s="32">
         <v>43830</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -3876,10 +3891,10 @@
       <c r="F40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="35">
         <v>57154.64</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="34" t="s">
         <v>53</v>
       </c>
       <c r="I40" s="17"/>
@@ -3893,7 +3908,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A41" s="40">
+      <c r="A41" s="32">
         <v>44372</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -3907,10 +3922,10 @@
       <c r="F41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="33">
         <v>418.88</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="34" t="s">
         <v>230</v>
       </c>
       <c r="I41" s="17"/>
@@ -3924,7 +3939,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A42" s="40">
+      <c r="A42" s="32">
         <v>45644</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -3938,10 +3953,10 @@
       <c r="F42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="33">
         <v>491.4</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="34" t="s">
         <v>231</v>
       </c>
       <c r="I42" s="17"/>
@@ -3955,7 +3970,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A43" s="40">
+      <c r="A43" s="32">
         <v>45666</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -3969,10 +3984,10 @@
       <c r="F43" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="33">
         <v>988.05</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="34" t="s">
         <v>232</v>
       </c>
       <c r="I43" s="17"/>
@@ -3986,7 +4001,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A44" s="40">
+      <c r="A44" s="32">
         <v>45666</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -4000,10 +4015,10 @@
       <c r="F44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="33">
         <v>927.08</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="34" t="s">
         <v>233</v>
       </c>
       <c r="I44" s="17"/>
@@ -4017,7 +4032,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A45" s="40">
+      <c r="A45" s="32">
         <v>45688</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -4031,10 +4046,10 @@
       <c r="F45" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="33">
         <v>11352.6</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="34" t="s">
         <v>234</v>
       </c>
       <c r="I45" s="17"/>
@@ -4048,7 +4063,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A46" s="40">
+      <c r="A46" s="32">
         <v>45688</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -4062,10 +4077,10 @@
       <c r="F46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="33">
         <v>11352.6</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="34" t="s">
         <v>235</v>
       </c>
       <c r="I46" s="17"/>
@@ -4079,7 +4094,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A47" s="40">
+      <c r="A47" s="32">
         <v>45705</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -4093,10 +4108,10 @@
       <c r="F47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="33">
         <v>708.12</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="34" t="s">
         <v>236</v>
       </c>
       <c r="I47" s="17"/>
@@ -4110,7 +4125,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A48" s="40">
+      <c r="A48" s="32">
         <v>45710</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -4124,10 +4139,10 @@
       <c r="F48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="33">
         <v>1767.92</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="34" t="s">
         <v>237</v>
       </c>
       <c r="I48" s="17"/>
@@ -4141,7 +4156,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A49" s="40">
+      <c r="A49" s="32">
         <v>45710</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -4155,10 +4170,10 @@
       <c r="F49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="32">
+      <c r="G49" s="33">
         <v>282.87</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="34" t="s">
         <v>238</v>
       </c>
       <c r="I49" s="17"/>
@@ -4172,7 +4187,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A50" s="40">
+      <c r="A50" s="32">
         <v>45712</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -4186,10 +4201,10 @@
       <c r="F50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="32">
+      <c r="G50" s="33">
         <v>52.38</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="34" t="s">
         <v>239</v>
       </c>
       <c r="I50" s="17"/>
@@ -4203,7 +4218,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A51" s="40">
+      <c r="A51" s="32">
         <v>45713</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -4217,10 +4232,10 @@
       <c r="F51" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="32">
+      <c r="G51" s="33">
         <v>1573.88</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="34" t="s">
         <v>240</v>
       </c>
       <c r="I51" s="17"/>
@@ -4234,7 +4249,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A52" s="40">
+      <c r="A52" s="32">
         <v>45716</v>
       </c>
       <c r="B52" s="13" t="s">
@@ -4248,10 +4263,10 @@
       <c r="F52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="33">
         <v>18861.82</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="34" t="s">
         <v>241</v>
       </c>
       <c r="I52" s="17"/>
@@ -4265,7 +4280,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A53" s="40">
+      <c r="A53" s="32">
         <v>45660</v>
       </c>
       <c r="B53" s="13" t="s">
@@ -4279,10 +4294,10 @@
       <c r="F53" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="33">
         <v>399</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="34" t="s">
         <v>242</v>
       </c>
       <c r="I53" s="17"/>
@@ -4296,7 +4311,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A54" s="40">
+      <c r="A54" s="32">
         <v>45661</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -4310,10 +4325,10 @@
       <c r="F54" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="33">
         <v>350</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="34" t="s">
         <v>243</v>
       </c>
       <c r="I54" s="17"/>
@@ -4327,7 +4342,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A55" s="40">
+      <c r="A55" s="32">
         <v>45668</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -4341,10 +4356,10 @@
       <c r="F55" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="33">
         <v>336</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="34" t="s">
         <v>244</v>
       </c>
       <c r="I55" s="17"/>
@@ -4358,7 +4373,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A56" s="40">
+      <c r="A56" s="32">
         <v>45668</v>
       </c>
       <c r="B56" s="13" t="s">
@@ -4372,10 +4387,10 @@
       <c r="F56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="33">
         <v>325.5</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="34" t="s">
         <v>245</v>
       </c>
       <c r="I56" s="17"/>
@@ -4389,7 +4404,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A57" s="40">
+      <c r="A57" s="32">
         <v>45668</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -4403,10 +4418,10 @@
       <c r="F57" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="33">
         <v>434</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="34" t="s">
         <v>246</v>
       </c>
       <c r="I57" s="17"/>
@@ -4420,7 +4435,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A58" s="40">
+      <c r="A58" s="32">
         <v>45670</v>
       </c>
       <c r="B58" s="13" t="s">
@@ -4434,10 +4449,10 @@
       <c r="F58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="33">
         <v>336</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="34" t="s">
         <v>247</v>
       </c>
       <c r="I58" s="17"/>
@@ -4451,7 +4466,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A59" s="40">
+      <c r="A59" s="32">
         <v>45672</v>
       </c>
       <c r="B59" s="13" t="s">
@@ -4465,10 +4480,10 @@
       <c r="F59" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="33">
         <v>1092.05</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H59" s="34" t="s">
         <v>248</v>
       </c>
       <c r="I59" s="17"/>
@@ -4482,7 +4497,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A60" s="40">
+      <c r="A60" s="32">
         <v>45672</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -4496,10 +4511,10 @@
       <c r="F60" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="33">
         <v>119</v>
       </c>
-      <c r="H60" s="14" t="s">
+      <c r="H60" s="34" t="s">
         <v>249</v>
       </c>
       <c r="I60" s="17"/>
@@ -4513,7 +4528,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A61" s="40">
+      <c r="A61" s="32">
         <v>45674</v>
       </c>
       <c r="B61" s="13" t="s">
@@ -4527,10 +4542,10 @@
       <c r="F61" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="33">
         <v>350</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="34" t="s">
         <v>250</v>
       </c>
       <c r="I61" s="17"/>
@@ -4544,7 +4559,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A62" s="40">
+      <c r="A62" s="32">
         <v>45681</v>
       </c>
       <c r="B62" s="13" t="s">
@@ -4558,10 +4573,10 @@
       <c r="F62" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="33">
         <v>343</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="34" t="s">
         <v>251</v>
       </c>
       <c r="I62" s="17"/>
@@ -4575,7 +4590,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A63" s="40">
+      <c r="A63" s="32">
         <v>45682</v>
       </c>
       <c r="B63" s="13" t="s">
@@ -4589,10 +4604,10 @@
       <c r="F63" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="33">
         <v>336</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="34" t="s">
         <v>252</v>
       </c>
       <c r="I63" s="17"/>
@@ -4606,7 +4621,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A64" s="40">
+      <c r="A64" s="32">
         <v>45691</v>
       </c>
       <c r="B64" s="13" t="s">
@@ -4620,10 +4635,10 @@
       <c r="F64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="33">
         <v>1613.87</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="34" t="s">
         <v>253</v>
       </c>
       <c r="I64" s="17"/>
@@ -4637,7 +4652,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A65" s="40">
+      <c r="A65" s="32">
         <v>45691</v>
       </c>
       <c r="B65" s="13" t="s">
@@ -4651,10 +4666,10 @@
       <c r="F65" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="33">
         <v>161</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="34" t="s">
         <v>254</v>
       </c>
       <c r="I65" s="17"/>
@@ -4668,7 +4683,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A66" s="40">
+      <c r="A66" s="32">
         <v>45698</v>
       </c>
       <c r="B66" s="13" t="s">
@@ -4682,10 +4697,10 @@
       <c r="F66" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="33">
         <v>343</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="34" t="s">
         <v>255</v>
       </c>
       <c r="I66" s="17"/>
@@ -4699,7 +4714,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A67" s="40">
+      <c r="A67" s="32">
         <v>45699</v>
       </c>
       <c r="B67" s="13" t="s">
@@ -4713,10 +4728,10 @@
       <c r="F67" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="33">
         <v>23.81</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="34" t="s">
         <v>256</v>
       </c>
       <c r="I67" s="17"/>
@@ -4730,7 +4745,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A68" s="40">
+      <c r="A68" s="32">
         <v>45699</v>
       </c>
       <c r="B68" s="13" t="s">
@@ -4744,10 +4759,10 @@
       <c r="F68" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="33">
         <v>208.46</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="34" t="s">
         <v>257</v>
       </c>
       <c r="I68" s="17"/>
@@ -4761,7 +4776,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A69" s="40">
+      <c r="A69" s="32">
         <v>45699</v>
       </c>
       <c r="B69" s="13" t="s">
@@ -4775,10 +4790,10 @@
       <c r="F69" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="33">
         <v>343</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="34" t="s">
         <v>258</v>
       </c>
       <c r="I69" s="17"/>
@@ -4792,7 +4807,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A70" s="40">
+      <c r="A70" s="32">
         <v>45701</v>
       </c>
       <c r="B70" s="13" t="s">
@@ -4806,10 +4821,10 @@
       <c r="F70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="33">
         <v>100.35</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="H70" s="34" t="s">
         <v>259</v>
       </c>
       <c r="I70" s="17"/>
@@ -4823,7 +4838,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A71" s="40">
+      <c r="A71" s="32">
         <v>45701</v>
       </c>
       <c r="B71" s="13" t="s">
@@ -4837,10 +4852,10 @@
       <c r="F71" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="33">
         <v>353.5</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="34" t="s">
         <v>260</v>
       </c>
       <c r="I71" s="17"/>
@@ -4854,7 +4869,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A72" s="40">
+      <c r="A72" s="32">
         <v>45701</v>
       </c>
       <c r="B72" s="13" t="s">
@@ -4868,10 +4883,10 @@
       <c r="F72" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="33">
         <v>254.66</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="34" t="s">
         <v>261</v>
       </c>
       <c r="I72" s="17"/>
@@ -4885,7 +4900,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A73" s="40">
+      <c r="A73" s="32">
         <v>42807</v>
       </c>
       <c r="B73" s="13" t="s">
@@ -4899,10 +4914,10 @@
       <c r="F73" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="33">
         <v>6114.16</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="34" t="s">
         <v>79</v>
       </c>
       <c r="I73" s="17"/>
@@ -4916,7 +4931,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A74" s="40">
+      <c r="A74" s="32">
         <v>45544</v>
       </c>
       <c r="B74" s="13" t="s">
@@ -4930,10 +4945,10 @@
       <c r="F74" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="33">
         <v>66.5</v>
       </c>
-      <c r="H74" s="15" t="s">
+      <c r="H74" s="34" t="s">
         <v>262</v>
       </c>
       <c r="I74" s="17"/>
@@ -4947,7 +4962,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A75" s="40">
+      <c r="A75" s="32">
         <v>45580</v>
       </c>
       <c r="B75" s="13" t="s">
@@ -4961,10 +4976,10 @@
       <c r="F75" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="33">
         <v>1172.6400000000001</v>
       </c>
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="34" t="s">
         <v>263</v>
       </c>
       <c r="I75" s="8"/>
@@ -4978,7 +4993,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A76" s="40">
+      <c r="A76" s="32">
         <v>45580</v>
       </c>
       <c r="B76" s="13" t="s">
@@ -4992,10 +5007,10 @@
       <c r="F76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="33">
         <v>150.56</v>
       </c>
-      <c r="H76" s="15" t="s">
+      <c r="H76" s="34" t="s">
         <v>264</v>
       </c>
       <c r="I76" s="14"/>
@@ -5009,7 +5024,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A77" s="40">
+      <c r="A77" s="32">
         <v>45580</v>
       </c>
       <c r="B77" s="13" t="s">
@@ -5023,10 +5038,10 @@
       <c r="F77" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="33">
         <v>12.74</v>
       </c>
-      <c r="H77" s="15" t="s">
+      <c r="H77" s="34" t="s">
         <v>265</v>
       </c>
       <c r="I77" s="14"/>
@@ -5040,7 +5055,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A78" s="40">
+      <c r="A78" s="32">
         <v>45587</v>
       </c>
       <c r="B78" s="13" t="s">
@@ -5054,10 +5069,10 @@
       <c r="F78" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="33">
         <v>842.18</v>
       </c>
-      <c r="H78" s="14" t="s">
+      <c r="H78" s="34" t="s">
         <v>266</v>
       </c>
       <c r="I78" s="16"/>
@@ -5071,7 +5086,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A79" s="40">
+      <c r="A79" s="32">
         <v>45603</v>
       </c>
       <c r="B79" s="13" t="s">
@@ -5085,10 +5100,10 @@
       <c r="F79" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="33">
         <v>705.58</v>
       </c>
-      <c r="H79" s="15" t="s">
+      <c r="H79" s="34" t="s">
         <v>267</v>
       </c>
       <c r="I79" s="17"/>
@@ -5102,7 +5117,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A80" s="40">
+      <c r="A80" s="32">
         <v>45610</v>
       </c>
       <c r="B80" s="13" t="s">
@@ -5116,10 +5131,10 @@
       <c r="F80" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="33">
         <v>324.05</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="34" t="s">
         <v>268</v>
       </c>
       <c r="I80" s="17"/>
@@ -5133,7 +5148,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A81" s="40">
+      <c r="A81" s="32">
         <v>45664</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -5147,10 +5162,10 @@
       <c r="F81" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="33">
         <v>784</v>
       </c>
-      <c r="H81" s="14" t="s">
+      <c r="H81" s="34" t="s">
         <v>269</v>
       </c>
       <c r="I81" s="17"/>
@@ -5164,7 +5179,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A82" s="40">
+      <c r="A82" s="32">
         <v>45671</v>
       </c>
       <c r="B82" s="13" t="s">
@@ -5178,10 +5193,10 @@
       <c r="F82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G82" s="33">
         <v>768.08</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="34" t="s">
         <v>270</v>
       </c>
       <c r="I82" s="17"/>
@@ -5195,7 +5210,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A83" s="40">
+      <c r="A83" s="32">
         <v>45682</v>
       </c>
       <c r="B83" s="13" t="s">
@@ -5209,10 +5224,10 @@
       <c r="F83" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G83" s="33">
         <v>203.9</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H83" s="34" t="s">
         <v>271</v>
       </c>
       <c r="I83" s="17"/>
@@ -5226,7 +5241,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A84" s="40">
+      <c r="A84" s="32">
         <v>45685</v>
       </c>
       <c r="B84" s="13" t="s">
@@ -5240,10 +5255,10 @@
       <c r="F84" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G84" s="33">
         <v>63</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="H84" s="34" t="s">
         <v>272</v>
       </c>
       <c r="I84" s="17"/>
@@ -5257,7 +5272,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A85" s="40">
+      <c r="A85" s="32">
         <v>45688</v>
       </c>
       <c r="B85" s="13" t="s">
@@ -5271,10 +5286,10 @@
       <c r="F85" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G85" s="33">
         <v>4284</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="34" t="s">
         <v>273</v>
       </c>
       <c r="I85" s="17"/>
@@ -5288,7 +5303,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A86" s="40">
+      <c r="A86" s="32">
         <v>45688</v>
       </c>
       <c r="B86" s="13" t="s">
@@ -5302,10 +5317,10 @@
       <c r="F86" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G86" s="33">
         <v>4284</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H86" s="34" t="s">
         <v>274</v>
       </c>
       <c r="I86" s="17"/>
@@ -5319,7 +5334,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A87" s="40">
+      <c r="A87" s="32">
         <v>45691</v>
       </c>
       <c r="B87" s="13" t="s">
@@ -5333,10 +5348,10 @@
       <c r="F87" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G87" s="33">
         <v>805</v>
       </c>
-      <c r="H87" s="15" t="s">
+      <c r="H87" s="34" t="s">
         <v>275</v>
       </c>
       <c r="I87" s="17"/>
@@ -5350,7 +5365,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A88" s="40">
+      <c r="A88" s="32">
         <v>45691</v>
       </c>
       <c r="B88" s="13" t="s">
@@ -5364,10 +5379,10 @@
       <c r="F88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G88" s="33">
         <v>805</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="34" t="s">
         <v>276</v>
       </c>
       <c r="I88" s="17"/>
@@ -5381,7 +5396,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A89" s="40">
+      <c r="A89" s="32">
         <v>45691</v>
       </c>
       <c r="B89" s="13" t="s">
@@ -5395,10 +5410,10 @@
       <c r="F89" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G89" s="33">
         <v>980</v>
       </c>
-      <c r="H89" s="14" t="s">
+      <c r="H89" s="34" t="s">
         <v>277</v>
       </c>
       <c r="I89" s="17"/>
@@ -5412,7 +5427,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A90" s="40">
+      <c r="A90" s="32">
         <v>45691</v>
       </c>
       <c r="B90" s="13" t="s">
@@ -5426,10 +5441,10 @@
       <c r="F90" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G90" s="33">
         <v>980</v>
       </c>
-      <c r="H90" s="14" t="s">
+      <c r="H90" s="34" t="s">
         <v>278</v>
       </c>
       <c r="I90" s="17"/>
@@ -5443,7 +5458,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A91" s="40">
+      <c r="A91" s="32">
         <v>45691</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -5457,10 +5472,10 @@
       <c r="F91" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G91" s="15">
+      <c r="G91" s="33">
         <v>875</v>
       </c>
-      <c r="H91" s="14" t="s">
+      <c r="H91" s="34" t="s">
         <v>279</v>
       </c>
       <c r="I91" s="17"/>
@@ -5474,7 +5489,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A92" s="40">
+      <c r="A92" s="32">
         <v>45691</v>
       </c>
       <c r="B92" s="13" t="s">
@@ -5488,10 +5503,10 @@
       <c r="F92" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="15">
+      <c r="G92" s="33">
         <v>875</v>
       </c>
-      <c r="H92" s="14" t="s">
+      <c r="H92" s="34" t="s">
         <v>280</v>
       </c>
       <c r="I92" s="17"/>
@@ -5505,7 +5520,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A93" s="40">
+      <c r="A93" s="32">
         <v>45691</v>
       </c>
       <c r="B93" s="13" t="s">
@@ -5519,10 +5534,10 @@
       <c r="F93" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G93" s="15">
+      <c r="G93" s="33">
         <v>847</v>
       </c>
-      <c r="H93" s="14" t="s">
+      <c r="H93" s="34" t="s">
         <v>281</v>
       </c>
       <c r="I93" s="17"/>
@@ -5536,7 +5551,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A94" s="40">
+      <c r="A94" s="32">
         <v>45691</v>
       </c>
       <c r="B94" s="13" t="s">
@@ -5550,10 +5565,10 @@
       <c r="F94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="15">
+      <c r="G94" s="33">
         <v>847</v>
       </c>
-      <c r="H94" s="14" t="s">
+      <c r="H94" s="34" t="s">
         <v>282</v>
       </c>
       <c r="I94" s="17"/>
@@ -5567,7 +5582,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A95" s="40">
+      <c r="A95" s="32">
         <v>45691</v>
       </c>
       <c r="B95" s="13" t="s">
@@ -5581,10 +5596,10 @@
       <c r="F95" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G95" s="15">
+      <c r="G95" s="33">
         <v>847</v>
       </c>
-      <c r="H95" s="14" t="s">
+      <c r="H95" s="34" t="s">
         <v>283</v>
       </c>
       <c r="I95" s="17"/>
@@ -5598,7 +5613,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A96" s="40">
+      <c r="A96" s="32">
         <v>45691</v>
       </c>
       <c r="B96" s="13" t="s">
@@ -5612,10 +5627,10 @@
       <c r="F96" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="15">
+      <c r="G96" s="33">
         <v>847</v>
       </c>
-      <c r="H96" s="15" t="s">
+      <c r="H96" s="34" t="s">
         <v>284</v>
       </c>
       <c r="I96" s="17"/>
@@ -5629,7 +5644,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A97" s="40">
+      <c r="A97" s="32">
         <v>45691</v>
       </c>
       <c r="B97" s="13" t="s">
@@ -5643,10 +5658,10 @@
       <c r="F97" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G97" s="15">
+      <c r="G97" s="33">
         <v>847</v>
       </c>
-      <c r="H97" s="14" t="s">
+      <c r="H97" s="34" t="s">
         <v>285</v>
       </c>
       <c r="I97" s="17"/>
@@ -5660,7 +5675,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A98" s="40">
+      <c r="A98" s="32">
         <v>45692</v>
       </c>
       <c r="B98" s="13" t="s">
@@ -5674,10 +5689,10 @@
       <c r="F98" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G98" s="15">
+      <c r="G98" s="33">
         <v>910</v>
       </c>
-      <c r="H98" s="15" t="s">
+      <c r="H98" s="34" t="s">
         <v>286</v>
       </c>
       <c r="I98" s="17"/>
@@ -5691,7 +5706,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A99" s="40">
+      <c r="A99" s="32">
         <v>45693</v>
       </c>
       <c r="B99" s="13" t="s">
@@ -5705,10 +5720,10 @@
       <c r="F99" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G99" s="15">
+      <c r="G99" s="33">
         <v>784</v>
       </c>
-      <c r="H99" s="15" t="s">
+      <c r="H99" s="34" t="s">
         <v>287</v>
       </c>
       <c r="I99" s="17"/>
@@ -5722,7 +5737,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A100" s="40">
+      <c r="A100" s="32">
         <v>45702</v>
       </c>
       <c r="B100" s="13" t="s">
@@ -5736,10 +5751,10 @@
       <c r="F100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G100" s="15">
+      <c r="G100" s="33">
         <v>3559.68</v>
       </c>
-      <c r="H100" s="15" t="s">
+      <c r="H100" s="34" t="s">
         <v>288</v>
       </c>
       <c r="I100" s="17"/>
@@ -5753,7 +5768,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A101" s="40">
+      <c r="A101" s="32">
         <v>45705</v>
       </c>
       <c r="B101" s="13" t="s">
@@ -5767,10 +5782,10 @@
       <c r="F101" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G101" s="15">
+      <c r="G101" s="33">
         <v>169.53</v>
       </c>
-      <c r="H101" s="15" t="s">
+      <c r="H101" s="34" t="s">
         <v>289</v>
       </c>
       <c r="I101" s="8"/>
@@ -5784,7 +5799,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A102" s="40">
+      <c r="A102" s="32">
         <v>45705</v>
       </c>
       <c r="B102" s="13" t="s">
@@ -5798,10 +5813,10 @@
       <c r="F102" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G102" s="15">
+      <c r="G102" s="33">
         <v>2625</v>
       </c>
-      <c r="H102" s="15" t="s">
+      <c r="H102" s="34" t="s">
         <v>290</v>
       </c>
       <c r="I102" s="14"/>
@@ -5815,7 +5830,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A103" s="40">
+      <c r="A103" s="32">
         <v>45705</v>
       </c>
       <c r="B103" s="13" t="s">
@@ -5829,10 +5844,10 @@
       <c r="F103" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G103" s="15">
+      <c r="G103" s="33">
         <v>927.5</v>
       </c>
-      <c r="H103" s="15" t="s">
+      <c r="H103" s="34" t="s">
         <v>290</v>
       </c>
       <c r="I103" s="14"/>
@@ -5846,7 +5861,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A104" s="40">
+      <c r="A104" s="32">
         <v>45705</v>
       </c>
       <c r="B104" s="13" t="s">
@@ -5860,10 +5875,10 @@
       <c r="F104" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G104" s="15">
+      <c r="G104" s="33">
         <v>1046.5</v>
       </c>
-      <c r="H104" s="15" t="s">
+      <c r="H104" s="34" t="s">
         <v>290</v>
       </c>
       <c r="I104" s="14"/>
@@ -5877,7 +5892,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A105" s="40">
+      <c r="A105" s="32">
         <v>45705</v>
       </c>
       <c r="B105" s="13" t="s">
@@ -5891,10 +5906,10 @@
       <c r="F105" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G105" s="15">
+      <c r="G105" s="33">
         <v>364</v>
       </c>
-      <c r="H105" s="15" t="s">
+      <c r="H105" s="34" t="s">
         <v>290</v>
       </c>
       <c r="I105" s="16"/>
@@ -5908,7 +5923,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A106" s="40">
+      <c r="A106" s="32">
         <v>45705</v>
       </c>
       <c r="B106" s="13" t="s">
@@ -5922,10 +5937,10 @@
       <c r="F106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G106" s="15">
+      <c r="G106" s="33">
         <v>3010</v>
       </c>
-      <c r="H106" s="15" t="s">
+      <c r="H106" s="34" t="s">
         <v>291</v>
       </c>
       <c r="I106" s="8"/>
@@ -5939,7 +5954,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A107" s="40">
+      <c r="A107" s="32">
         <v>45705</v>
       </c>
       <c r="B107" s="13" t="s">
@@ -5953,10 +5968,10 @@
       <c r="F107" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G107" s="15">
+      <c r="G107" s="33">
         <v>350</v>
       </c>
-      <c r="H107" s="15" t="s">
+      <c r="H107" s="34" t="s">
         <v>291</v>
       </c>
       <c r="I107" s="14"/>
@@ -5970,7 +5985,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A108" s="40">
+      <c r="A108" s="32">
         <v>45705</v>
       </c>
       <c r="B108" s="13" t="s">
@@ -5984,10 +5999,10 @@
       <c r="F108" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="15">
+      <c r="G108" s="33">
         <v>392</v>
       </c>
-      <c r="H108" s="15" t="s">
+      <c r="H108" s="34" t="s">
         <v>291</v>
       </c>
       <c r="I108" s="16"/>
@@ -6001,7 +6016,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A109" s="40">
+      <c r="A109" s="32">
         <v>45705</v>
       </c>
       <c r="B109" s="13" t="s">
@@ -6015,10 +6030,10 @@
       <c r="F109" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G109" s="15">
+      <c r="G109" s="33">
         <v>679</v>
       </c>
-      <c r="H109" s="15" t="s">
+      <c r="H109" s="34" t="s">
         <v>291</v>
       </c>
       <c r="I109" s="8"/>
@@ -6032,7 +6047,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A110" s="40">
+      <c r="A110" s="32">
         <v>45705</v>
       </c>
       <c r="B110" s="13" t="s">
@@ -6046,10 +6061,10 @@
       <c r="F110" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="15">
+      <c r="G110" s="33">
         <v>980</v>
       </c>
-      <c r="H110" s="15" t="s">
+      <c r="H110" s="34" t="s">
         <v>291</v>
       </c>
       <c r="I110" s="14"/>
@@ -6063,7 +6078,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A111" s="40">
+      <c r="A111" s="32">
         <v>45705</v>
       </c>
       <c r="B111" s="13" t="s">
@@ -6077,10 +6092,10 @@
       <c r="F111" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G111" s="15">
+      <c r="G111" s="33">
         <v>637</v>
       </c>
-      <c r="H111" s="15" t="s">
+      <c r="H111" s="34" t="s">
         <v>291</v>
       </c>
       <c r="I111" s="14"/>
@@ -6094,7 +6109,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A112" s="40">
+      <c r="A112" s="32">
         <v>45708</v>
       </c>
       <c r="B112" s="13" t="s">
@@ -6108,10 +6123,10 @@
       <c r="F112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G112" s="15">
+      <c r="G112" s="33">
         <v>174.02</v>
       </c>
-      <c r="H112" s="15" t="s">
+      <c r="H112" s="34" t="s">
         <v>292</v>
       </c>
       <c r="I112" s="14"/>
@@ -6125,7 +6140,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A113" s="40">
+      <c r="A113" s="32">
         <v>45712</v>
       </c>
       <c r="B113" s="13" t="s">
@@ -6139,10 +6154,10 @@
       <c r="F113" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G113" s="15">
+      <c r="G113" s="33">
         <v>1155</v>
       </c>
-      <c r="H113" s="15" t="s">
+      <c r="H113" s="34" t="s">
         <v>293</v>
       </c>
       <c r="I113" s="16"/>
@@ -6156,7 +6171,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A114" s="40">
+      <c r="A114" s="32">
         <v>45713</v>
       </c>
       <c r="B114" s="13" t="s">
@@ -6170,10 +6185,10 @@
       <c r="F114" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G114" s="15">
+      <c r="G114" s="33">
         <v>35.28</v>
       </c>
-      <c r="H114" s="15" t="s">
+      <c r="H114" s="34" t="s">
         <v>294</v>
       </c>
       <c r="I114" s="8"/>
@@ -6187,7 +6202,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A115" s="40">
+      <c r="A115" s="32">
         <v>45713</v>
       </c>
       <c r="B115" s="13" t="s">
@@ -6201,10 +6216,10 @@
       <c r="F115" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G115" s="15">
+      <c r="G115" s="33">
         <v>451.5</v>
       </c>
-      <c r="H115" s="14" t="s">
+      <c r="H115" s="34" t="s">
         <v>295</v>
       </c>
       <c r="I115" s="16"/>
@@ -6218,7 +6233,7 @@
       </c>
     </row>
     <row r="116" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A116" s="40">
+      <c r="A116" s="32">
         <v>45713</v>
       </c>
       <c r="B116" s="13" t="s">
@@ -6232,10 +6247,10 @@
       <c r="F116" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G116" s="15">
+      <c r="G116" s="33">
         <v>451.5</v>
       </c>
-      <c r="H116" s="15" t="s">
+      <c r="H116" s="34" t="s">
         <v>296</v>
       </c>
       <c r="I116" s="8"/>
@@ -6249,7 +6264,7 @@
       </c>
     </row>
     <row r="117" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A117" s="40">
+      <c r="A117" s="32">
         <v>45713</v>
       </c>
       <c r="B117" s="13" t="s">
@@ -6263,10 +6278,10 @@
       <c r="F117" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G117" s="15">
+      <c r="G117" s="33">
         <v>784</v>
       </c>
-      <c r="H117" s="15" t="s">
+      <c r="H117" s="34" t="s">
         <v>297</v>
       </c>
       <c r="I117" s="16"/>
@@ -6280,7 +6295,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A118" s="40">
+      <c r="A118" s="32">
         <v>45713</v>
       </c>
       <c r="B118" s="13" t="s">
@@ -6294,10 +6309,10 @@
       <c r="F118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="15">
+      <c r="G118" s="33">
         <v>63</v>
       </c>
-      <c r="H118" s="15" t="s">
+      <c r="H118" s="34" t="s">
         <v>298</v>
       </c>
       <c r="I118" s="17"/>
@@ -6311,7 +6326,7 @@
       </c>
     </row>
     <row r="119" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A119" s="40">
+      <c r="A119" s="32">
         <v>45715</v>
       </c>
       <c r="B119" s="13" t="s">
@@ -6325,10 +6340,10 @@
       <c r="F119" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G119" s="15">
+      <c r="G119" s="33">
         <v>312.2</v>
       </c>
-      <c r="H119" s="15" t="s">
+      <c r="H119" s="34" t="s">
         <v>299</v>
       </c>
       <c r="I119" s="17"/>
@@ -6342,7 +6357,7 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A120" s="40">
+      <c r="A120" s="32">
         <v>45715</v>
       </c>
       <c r="B120" s="13" t="s">
@@ -6356,10 +6371,10 @@
       <c r="F120" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G120" s="15">
+      <c r="G120" s="33">
         <v>114.08</v>
       </c>
-      <c r="H120" s="15" t="s">
+      <c r="H120" s="34" t="s">
         <v>300</v>
       </c>
       <c r="I120" s="17"/>
@@ -6373,7 +6388,7 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A121" s="40">
+      <c r="A121" s="32">
         <v>45716</v>
       </c>
       <c r="B121" s="13" t="s">
@@ -6387,10 +6402,10 @@
       <c r="F121" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G121" s="15">
+      <c r="G121" s="33">
         <v>154</v>
       </c>
-      <c r="H121" s="15" t="s">
+      <c r="H121" s="34" t="s">
         <v>301</v>
       </c>
       <c r="I121" s="17"/>
@@ -6404,7 +6419,7 @@
       </c>
     </row>
     <row r="122" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A122" s="40">
+      <c r="A122" s="32">
         <v>45716</v>
       </c>
       <c r="B122" s="13" t="s">
@@ -6418,10 +6433,10 @@
       <c r="F122" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G122" s="15">
+      <c r="G122" s="33">
         <v>1151.5</v>
       </c>
-      <c r="H122" s="15" t="s">
+      <c r="H122" s="34" t="s">
         <v>301</v>
       </c>
       <c r="I122" s="17"/>
@@ -6435,7 +6450,7 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A123" s="40">
+      <c r="A123" s="32">
         <v>45716</v>
       </c>
       <c r="B123" s="13" t="s">
@@ -6449,10 +6464,10 @@
       <c r="F123" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G123" s="15">
+      <c r="G123" s="33">
         <v>87.5</v>
       </c>
-      <c r="H123" s="15" t="s">
+      <c r="H123" s="34" t="s">
         <v>301</v>
       </c>
       <c r="I123" s="17"/>
@@ -6466,7 +6481,7 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A124" s="40">
+      <c r="A124" s="32">
         <v>45716</v>
       </c>
       <c r="B124" s="13" t="s">
@@ -6480,10 +6495,10 @@
       <c r="F124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G124" s="15">
+      <c r="G124" s="33">
         <v>359.1</v>
       </c>
-      <c r="H124" s="15" t="s">
+      <c r="H124" s="34" t="s">
         <v>301</v>
       </c>
       <c r="I124" s="17"/>
@@ -6497,7 +6512,7 @@
       </c>
     </row>
     <row r="125" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A125" s="40">
+      <c r="A125" s="32">
         <v>45716</v>
       </c>
       <c r="B125" s="13" t="s">
@@ -6511,10 +6526,10 @@
       <c r="F125" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="15">
+      <c r="G125" s="33">
         <v>3304</v>
       </c>
-      <c r="H125" s="15" t="s">
+      <c r="H125" s="34" t="s">
         <v>302</v>
       </c>
       <c r="I125" s="17"/>
@@ -6528,7 +6543,7 @@
       </c>
     </row>
     <row r="126" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A126" s="40">
+      <c r="A126" s="32">
         <v>45716</v>
       </c>
       <c r="B126" s="13" t="s">
@@ -6542,10 +6557,10 @@
       <c r="F126" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G126" s="15">
+      <c r="G126" s="33">
         <v>448</v>
       </c>
-      <c r="H126" s="15" t="s">
+      <c r="H126" s="34" t="s">
         <v>302</v>
       </c>
       <c r="I126" s="17"/>
@@ -6559,7 +6574,7 @@
       </c>
     </row>
     <row r="127" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A127" s="40">
+      <c r="A127" s="32">
         <v>45716</v>
       </c>
       <c r="B127" s="13" t="s">
@@ -6573,10 +6588,10 @@
       <c r="F127" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="15">
+      <c r="G127" s="33">
         <v>259</v>
       </c>
-      <c r="H127" s="15" t="s">
+      <c r="H127" s="34" t="s">
         <v>302</v>
       </c>
       <c r="I127" s="17"/>
@@ -6590,7 +6605,7 @@
       </c>
     </row>
     <row r="128" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A128" s="40">
+      <c r="A128" s="32">
         <v>45716</v>
       </c>
       <c r="B128" s="13" t="s">
@@ -6604,10 +6619,10 @@
       <c r="F128" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G128" s="15">
+      <c r="G128" s="33">
         <v>455</v>
       </c>
-      <c r="H128" s="15" t="s">
+      <c r="H128" s="34" t="s">
         <v>302</v>
       </c>
       <c r="I128" s="17"/>
@@ -6621,7 +6636,7 @@
       </c>
     </row>
     <row r="129" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A129" s="40">
+      <c r="A129" s="32">
         <v>45716</v>
       </c>
       <c r="B129" s="13" t="s">
@@ -6635,10 +6650,10 @@
       <c r="F129" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G129" s="15">
+      <c r="G129" s="33">
         <v>154</v>
       </c>
-      <c r="H129" s="14" t="s">
+      <c r="H129" s="34" t="s">
         <v>302</v>
       </c>
       <c r="I129" s="17"/>
@@ -6652,7 +6667,7 @@
       </c>
     </row>
     <row r="130" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A130" s="40">
+      <c r="A130" s="32">
         <v>45716</v>
       </c>
       <c r="B130" s="13" t="s">
@@ -6666,10 +6681,10 @@
       <c r="F130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G130" s="15">
+      <c r="G130" s="33">
         <v>857.5</v>
       </c>
-      <c r="H130" s="14" t="s">
+      <c r="H130" s="34" t="s">
         <v>302</v>
       </c>
       <c r="I130" s="17"/>
@@ -6683,7 +6698,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A131" s="40">
+      <c r="A131" s="32">
         <v>45716</v>
       </c>
       <c r="B131" s="13" t="s">
@@ -6697,10 +6712,10 @@
       <c r="F131" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G131" s="15">
+      <c r="G131" s="33">
         <v>147</v>
       </c>
-      <c r="H131" s="14" t="s">
+      <c r="H131" s="34" t="s">
         <v>302</v>
       </c>
       <c r="I131" s="17"/>
@@ -6714,7 +6729,7 @@
       </c>
     </row>
     <row r="132" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A132" s="40">
+      <c r="A132" s="32">
         <v>45716</v>
       </c>
       <c r="B132" s="13" t="s">
@@ -6728,10 +6743,10 @@
       <c r="F132" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G132" s="15">
+      <c r="G132" s="33">
         <v>196</v>
       </c>
-      <c r="H132" s="15" t="s">
+      <c r="H132" s="34" t="s">
         <v>302</v>
       </c>
       <c r="I132" s="8"/>
@@ -6745,7 +6760,7 @@
       </c>
     </row>
     <row r="133" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A133" s="40">
+      <c r="A133" s="32">
         <v>45716</v>
       </c>
       <c r="B133" s="13" t="s">
@@ -6759,10 +6774,10 @@
       <c r="F133" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G133" s="15">
+      <c r="G133" s="33">
         <v>2184</v>
       </c>
-      <c r="H133" s="15" t="s">
+      <c r="H133" s="34" t="s">
         <v>302</v>
       </c>
       <c r="I133" s="16"/>
@@ -6776,7 +6791,7 @@
       </c>
     </row>
     <row r="134" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A134" s="40">
+      <c r="A134" s="32">
         <v>45716</v>
       </c>
       <c r="B134" s="13" t="s">
@@ -6790,10 +6805,10 @@
       <c r="F134" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G134" s="15">
+      <c r="G134" s="33">
         <v>91</v>
       </c>
-      <c r="H134" s="15" t="s">
+      <c r="H134" s="34" t="s">
         <v>302</v>
       </c>
       <c r="I134" s="17"/>
@@ -6807,7 +6822,7 @@
       </c>
     </row>
     <row r="135" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A135" s="40">
+      <c r="A135" s="32">
         <v>45596</v>
       </c>
       <c r="B135" s="13" t="s">
@@ -6821,10 +6836,10 @@
       <c r="F135" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G135" s="15">
+      <c r="G135" s="33">
         <v>10470.81</v>
       </c>
-      <c r="H135" s="15"/>
+      <c r="H135" s="36"/>
       <c r="I135" s="17" t="s">
         <v>315</v>
       </c>
@@ -6838,7 +6853,7 @@
       </c>
     </row>
     <row r="136" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A136" s="40">
+      <c r="A136" s="32">
         <v>45596</v>
       </c>
       <c r="B136" s="13" t="s">
@@ -6852,10 +6867,10 @@
       <c r="F136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G136" s="15">
+      <c r="G136" s="33">
         <v>10470.81</v>
       </c>
-      <c r="H136" s="15"/>
+      <c r="H136" s="36"/>
       <c r="I136" s="17" t="s">
         <v>316</v>
       </c>
@@ -6869,7 +6884,7 @@
       </c>
     </row>
     <row r="137" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A137" s="40">
+      <c r="A137" s="32">
         <v>45596</v>
       </c>
       <c r="B137" s="13" t="s">
@@ -6883,10 +6898,10 @@
       <c r="F137" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G137" s="15">
+      <c r="G137" s="33">
         <v>10470.81</v>
       </c>
-      <c r="H137" s="15"/>
+      <c r="H137" s="36"/>
       <c r="I137" s="17" t="s">
         <v>317</v>
       </c>
@@ -6900,7 +6915,7 @@
       </c>
     </row>
     <row r="138" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A138" s="40">
+      <c r="A138" s="32">
         <v>45596</v>
       </c>
       <c r="B138" s="13" t="s">
@@ -6914,10 +6929,10 @@
       <c r="F138" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G138" s="15">
+      <c r="G138" s="33">
         <v>10470.81</v>
       </c>
-      <c r="H138" s="15"/>
+      <c r="H138" s="36"/>
       <c r="I138" s="17" t="s">
         <v>318</v>
       </c>
@@ -6931,7 +6946,7 @@
       </c>
     </row>
     <row r="139" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A139" s="40">
+      <c r="A139" s="32">
         <v>45596</v>
       </c>
       <c r="B139" s="13" t="s">
@@ -6945,10 +6960,10 @@
       <c r="F139" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G139" s="15">
+      <c r="G139" s="33">
         <v>10470.81</v>
       </c>
-      <c r="H139" s="15"/>
+      <c r="H139" s="36"/>
       <c r="I139" s="8" t="s">
         <v>319</v>
       </c>
@@ -6962,7 +6977,7 @@
       </c>
     </row>
     <row r="140" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A140" s="40">
+      <c r="A140" s="32">
         <v>45596</v>
       </c>
       <c r="B140" s="13" t="s">
@@ -6976,10 +6991,10 @@
       <c r="F140" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G140" s="15">
+      <c r="G140" s="33">
         <v>10470.81</v>
       </c>
-      <c r="H140" s="15"/>
+      <c r="H140" s="36"/>
       <c r="I140" s="14" t="s">
         <v>320</v>
       </c>
@@ -6993,7 +7008,7 @@
       </c>
     </row>
     <row r="141" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A141" s="40">
+      <c r="A141" s="32">
         <v>45596</v>
       </c>
       <c r="B141" s="13" t="s">
@@ -7007,10 +7022,10 @@
       <c r="F141" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G141" s="15">
+      <c r="G141" s="33">
         <v>10470.81</v>
       </c>
-      <c r="H141" s="15"/>
+      <c r="H141" s="36"/>
       <c r="I141" s="16" t="s">
         <v>321</v>
       </c>
@@ -7024,7 +7039,7 @@
       </c>
     </row>
     <row r="142" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A142" s="40">
+      <c r="A142" s="32">
         <v>45737</v>
       </c>
       <c r="B142" s="13" t="s">
@@ -7038,10 +7053,10 @@
       <c r="F142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G142" s="15">
+      <c r="G142" s="37">
         <v>15.4</v>
       </c>
-      <c r="H142" s="14" t="s">
+      <c r="H142" s="38" t="s">
         <v>303</v>
       </c>
       <c r="I142" s="17"/>
@@ -7055,7 +7070,7 @@
       </c>
     </row>
     <row r="143" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A143" s="40">
+      <c r="A143" s="32">
         <v>45737</v>
       </c>
       <c r="B143" s="13" t="s">
@@ -7069,10 +7084,10 @@
       <c r="F143" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G143" s="15">
+      <c r="G143" s="37">
         <v>39.25</v>
       </c>
-      <c r="H143" s="14" t="s">
+      <c r="H143" s="38" t="s">
         <v>304</v>
       </c>
       <c r="I143" s="17"/>
@@ -7086,7 +7101,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A144" s="40">
+      <c r="A144" s="32">
         <v>45737</v>
       </c>
       <c r="B144" s="13" t="s">
@@ -7100,10 +7115,10 @@
       <c r="F144" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G144" s="15">
+      <c r="G144" s="37">
         <v>52.34</v>
       </c>
-      <c r="H144" s="14" t="s">
+      <c r="H144" s="38" t="s">
         <v>305</v>
       </c>
       <c r="I144" s="17"/>
@@ -7117,7 +7132,7 @@
       </c>
     </row>
     <row r="145" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A145" s="40">
+      <c r="A145" s="32">
         <v>45737</v>
       </c>
       <c r="B145" s="13" t="s">
@@ -7131,10 +7146,10 @@
       <c r="F145" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G145" s="15">
+      <c r="G145" s="37">
         <v>45.14</v>
       </c>
-      <c r="H145" s="14" t="s">
+      <c r="H145" s="38" t="s">
         <v>306</v>
       </c>
       <c r="I145" s="17"/>
@@ -7148,7 +7163,7 @@
       </c>
     </row>
     <row r="146" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A146" s="40">
+      <c r="A146" s="32">
         <v>45737</v>
       </c>
       <c r="B146" s="13" t="s">
@@ -7162,10 +7177,10 @@
       <c r="F146" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G146" s="15">
+      <c r="G146" s="37">
         <v>39.25</v>
       </c>
-      <c r="H146" s="14" t="s">
+      <c r="H146" s="38" t="s">
         <v>304</v>
       </c>
       <c r="I146" s="17"/>
@@ -7179,7 +7194,7 @@
       </c>
     </row>
     <row r="147" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A147" s="40">
+      <c r="A147" s="32">
         <v>45737</v>
       </c>
       <c r="B147" s="13" t="s">
@@ -7193,10 +7208,10 @@
       <c r="F147" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G147" s="15">
+      <c r="G147" s="37">
         <v>52.34</v>
       </c>
-      <c r="H147" s="15" t="s">
+      <c r="H147" s="38" t="s">
         <v>307</v>
       </c>
       <c r="I147" s="17"/>
@@ -7210,7 +7225,7 @@
       </c>
     </row>
     <row r="148" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A148" s="40">
+      <c r="A148" s="32">
         <v>45737</v>
       </c>
       <c r="B148" s="13" t="s">
@@ -7224,10 +7239,10 @@
       <c r="F148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G148" s="15">
+      <c r="G148" s="37">
         <v>45.14</v>
       </c>
-      <c r="H148" s="15" t="s">
+      <c r="H148" s="38" t="s">
         <v>308</v>
       </c>
       <c r="I148" s="17"/>
@@ -7241,7 +7256,7 @@
       </c>
     </row>
     <row r="149" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A149" s="40">
+      <c r="A149" s="32">
         <v>45507</v>
       </c>
       <c r="B149" s="13" t="s">
@@ -7255,10 +7270,10 @@
       <c r="F149" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G149" s="15">
+      <c r="G149" s="37">
         <v>188.34</v>
       </c>
-      <c r="H149" s="15" t="s">
+      <c r="H149" s="38" t="s">
         <v>309</v>
       </c>
       <c r="I149" s="17"/>
@@ -7272,7 +7287,7 @@
       </c>
     </row>
     <row r="150" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A150" s="40">
+      <c r="A150" s="32">
         <v>45688</v>
       </c>
       <c r="B150" s="13" t="s">
@@ -7286,10 +7301,10 @@
       <c r="F150" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G150" s="15">
+      <c r="G150" s="37">
         <v>84.42</v>
       </c>
-      <c r="H150" s="15" t="s">
+      <c r="H150" s="38" t="s">
         <v>213</v>
       </c>
       <c r="I150" s="8"/>
@@ -7303,7 +7318,7 @@
       </c>
     </row>
     <row r="151" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A151" s="40">
+      <c r="A151" s="32">
         <v>45698</v>
       </c>
       <c r="B151" s="13" t="s">
@@ -7317,10 +7332,10 @@
       <c r="F151" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G151" s="15">
+      <c r="G151" s="37">
         <v>78.680000000000007</v>
       </c>
-      <c r="H151" s="15" t="s">
+      <c r="H151" s="38" t="s">
         <v>310</v>
       </c>
       <c r="I151" s="14"/>
@@ -7334,7 +7349,7 @@
       </c>
     </row>
     <row r="152" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A152" s="40">
+      <c r="A152" s="32">
         <v>45716</v>
       </c>
       <c r="B152" s="13" t="s">
@@ -7348,10 +7363,10 @@
       <c r="F152" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G152" s="15">
+      <c r="G152" s="37">
         <v>52.5</v>
       </c>
-      <c r="H152" s="15" t="s">
+      <c r="H152" s="38" t="s">
         <v>213</v>
       </c>
       <c r="I152" s="14"/>
@@ -7365,7 +7380,7 @@
       </c>
     </row>
     <row r="153" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A153" s="40">
+      <c r="A153" s="32">
         <v>45716</v>
       </c>
       <c r="B153" s="13" t="s">
@@ -7379,10 +7394,10 @@
       <c r="F153" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G153" s="15">
+      <c r="G153" s="37">
         <v>9009.35</v>
       </c>
-      <c r="H153" s="15" t="s">
+      <c r="H153" s="38" t="s">
         <v>213</v>
       </c>
       <c r="I153" s="14"/>
@@ -7396,7 +7411,7 @@
       </c>
     </row>
     <row r="154" spans="1:13" ht="21.6" customHeight="1">
-      <c r="A154" s="40">
+      <c r="A154" s="32">
         <v>45716</v>
       </c>
       <c r="B154" s="13" t="s">
@@ -7410,10 +7425,10 @@
       <c r="F154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G154" s="15">
+      <c r="G154" s="37">
         <v>2221.37</v>
       </c>
-      <c r="H154" s="15" t="s">
+      <c r="H154" s="38" t="s">
         <v>311</v>
       </c>
       <c r="I154" s="14"/>
@@ -7427,7 +7442,7 @@
       </c>
     </row>
     <row r="155" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A155" s="40">
+      <c r="A155" s="32">
         <v>45716</v>
       </c>
       <c r="B155" s="13" t="s">
@@ -7441,10 +7456,10 @@
       <c r="F155" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G155" s="15">
+      <c r="G155" s="37">
         <v>49</v>
       </c>
-      <c r="H155" s="15" t="s">
+      <c r="H155" s="38" t="s">
         <v>312</v>
       </c>
       <c r="I155" s="14"/>
@@ -7458,7 +7473,7 @@
       </c>
     </row>
     <row r="156" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A156" s="40">
+      <c r="A156" s="32">
         <v>45737</v>
       </c>
       <c r="B156" s="13" t="s">
@@ -7472,10 +7487,10 @@
       <c r="F156" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G156" s="15">
+      <c r="G156" s="37">
         <v>2.62</v>
       </c>
-      <c r="H156" s="15" t="s">
+      <c r="H156" s="38" t="s">
         <v>313</v>
       </c>
       <c r="I156" s="14"/>
@@ -7489,7 +7504,7 @@
       </c>
     </row>
     <row r="157" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A157" s="40">
+      <c r="A157" s="32">
         <v>45747</v>
       </c>
       <c r="B157" s="13" t="s">
@@ -7503,10 +7518,10 @@
       <c r="F157" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G157" s="15">
+      <c r="G157" s="39">
         <v>5.23</v>
       </c>
-      <c r="H157" s="15" t="s">
+      <c r="H157" s="40" t="s">
         <v>314</v>
       </c>
       <c r="I157" s="14"/>
@@ -7520,7 +7535,7 @@
       </c>
     </row>
     <row r="158" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A158" s="40">
+      <c r="A158" s="32">
         <v>45688</v>
       </c>
       <c r="B158" s="13" t="s">
@@ -7534,10 +7549,10 @@
       <c r="F158" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G158" s="15">
+      <c r="G158" s="33">
         <v>286.33</v>
       </c>
-      <c r="H158" s="15"/>
+      <c r="H158" s="41"/>
       <c r="I158" s="14"/>
       <c r="J158" s="19"/>
       <c r="K158" s="9"/>
@@ -7549,7 +7564,7 @@
       </c>
     </row>
     <row r="159" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A159" s="40">
+      <c r="A159" s="32">
         <v>45716</v>
       </c>
       <c r="B159" s="13" t="s">
@@ -7563,10 +7578,10 @@
       <c r="F159" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G159" s="15">
+      <c r="G159" s="33">
         <v>960.05</v>
       </c>
-      <c r="H159" s="15"/>
+      <c r="H159" s="41"/>
       <c r="I159" s="14"/>
       <c r="J159" s="19"/>
       <c r="K159" s="9"/>
@@ -7578,49 +7593,97 @@
       </c>
     </row>
     <row r="160" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A160" s="12"/>
-      <c r="B160" s="13"/>
+      <c r="A160" s="42">
+        <v>45716</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>322</v>
+      </c>
       <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
+      <c r="D160" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
+      <c r="F160" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" s="15">
+        <v>84</v>
+      </c>
+      <c r="H160" s="43" t="s">
+        <v>323</v>
+      </c>
       <c r="I160" s="14"/>
       <c r="J160" s="19"/>
       <c r="K160" s="9"/>
-      <c r="L160" s="10"/>
-      <c r="M160" s="11"/>
+      <c r="L160" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M160" s="31">
+        <v>116400</v>
+      </c>
     </row>
     <row r="161" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A161" s="12"/>
-      <c r="B161" s="13"/>
+      <c r="A161" s="42">
+        <v>45716</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
+      <c r="D161" s="14" t="s">
+        <v>169</v>
+      </c>
       <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
+      <c r="F161" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" s="15">
+        <v>123.47</v>
+      </c>
+      <c r="H161" s="43" t="s">
+        <v>325</v>
+      </c>
       <c r="I161" s="14"/>
       <c r="J161" s="19"/>
       <c r="K161" s="9"/>
-      <c r="L161" s="10"/>
-      <c r="M161" s="11"/>
+      <c r="L161" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M161" s="31">
+        <v>116400</v>
+      </c>
     </row>
     <row r="162" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A162" s="12"/>
-      <c r="B162" s="13"/>
+      <c r="A162" s="42">
+        <v>45771</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
+      <c r="D162" s="14" t="s">
+        <v>327</v>
+      </c>
       <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
+      <c r="F162" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" s="15">
+        <v>3500</v>
+      </c>
+      <c r="H162" s="43" t="s">
+        <v>328</v>
+      </c>
       <c r="I162" s="14"/>
       <c r="J162" s="19"/>
       <c r="K162" s="9"/>
-      <c r="L162" s="10"/>
-      <c r="M162" s="11"/>
+      <c r="L162" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M162" s="31">
+        <v>116400</v>
+      </c>
     </row>
     <row r="163" spans="1:13" ht="49.65" customHeight="1">
       <c r="A163" s="12"/>
